--- a/planilha_base_notas.xlsx
+++ b/planilha_base_notas.xlsx
@@ -739,7 +739,7 @@
         <v>36645.1</v>
       </c>
       <c r="G2" t="n">
-        <v>3664.51</v>
+        <v>10993.53</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>3664.51</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7329.02</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>337555.9</v>
       </c>
       <c r="G3" t="n">
-        <v>62270.4</v>
+        <v>186811.2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>62270.4</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>124540.8</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>93252.72</v>
+        <v>87163.98</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>8788.620000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>8788.620000000001</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>217184.19</v>
       </c>
       <c r="G5" t="n">
-        <v>22951.73</v>
+        <v>68624.48</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -963,10 +963,10 @@
         <v>22951.73</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>22858.2</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>22814.55</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>138433.7</v>
       </c>
       <c r="G6" t="n">
-        <v>13843.37</v>
+        <v>41412.83</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1032,10 +1032,10 @@
         <v>13843.37</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>13825.33</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>13744.13</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>94498.23</v>
+        <v>84311.00999999999</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>103826.77</v>
+        <v>92527.36</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>92658.55</v>
+        <v>91990.97</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1359,10 +1359,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>25501.77</v>
+        <v>44189.58</v>
       </c>
       <c r="G11" t="n">
-        <v>25501.77</v>
+        <v>42502.95</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1377,10 +1377,10 @@
         <v>17001.18</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>8500.59</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>8500.59</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>28506.34</v>
+        <v>48312.09</v>
       </c>
       <c r="G12" t="n">
-        <v>25519.02</v>
+        <v>42531.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         <v>8506.34</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>8506.34</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>8506.34</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>124531.2</v>
       </c>
       <c r="G13" t="n">
-        <v>44146.52</v>
+        <v>55183.14999999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>11036.63</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>11036.63</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>125715.6</v>
       </c>
       <c r="G14" t="n">
-        <v>44524.88</v>
+        <v>55656.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>11131.22</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>11131.22</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4080550.49</v>
+        <v>4078500.49</v>
       </c>
       <c r="G15" t="n">
-        <v>650265.63</v>
+        <v>960293.85</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>310028.22</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>628711.5</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>5503.69</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>5503.69</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
